--- a/hacksdata.xlsx
+++ b/hacksdata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VIT Bhopal\SY-Btech\Semester 4\DevHack\DevHack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C567550F-5F0A-4F3B-B31D-ECCCEBDCBB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="159">
   <si>
     <t>name</t>
   </si>
@@ -458,12 +464,45 @@
   </si>
   <si>
     <t>Hack_id</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>D:/VIT Bhopal/SY-Btech/Semester 4/DevHack/DevHack/media/01.png</t>
+  </si>
+  <si>
+    <t>D:/VIT Bhopal/SY-Btech/Semester 4/DevHack/DevHack/media/02.png</t>
+  </si>
+  <si>
+    <t>D:/VIT Bhopal/SY-Btech/Semester 4/DevHack/DevHack/media/03.png</t>
+  </si>
+  <si>
+    <t>D:/VIT Bhopal/SY-Btech/Semester 4/DevHack/DevHack/media/04.png</t>
+  </si>
+  <si>
+    <t>D:/VIT Bhopal/SY-Btech/Semester 4/DevHack/DevHack/media/05.png</t>
+  </si>
+  <si>
+    <t>D:/VIT Bhopal/SY-Btech/Semester 4/DevHack/DevHack/media/06.png</t>
+  </si>
+  <si>
+    <t>D:/VIT Bhopal/SY-Btech/Semester 4/DevHack/DevHack/media/07.png</t>
+  </si>
+  <si>
+    <t>D:/VIT Bhopal/SY-Btech/Semester 4/DevHack/DevHack/media/08.png</t>
+  </si>
+  <si>
+    <t>D:/VIT Bhopal/SY-Btech/Semester 4/DevHack/DevHack/media/09.png</t>
+  </si>
+  <si>
+    <t>D:/VIT Bhopal/SY-Btech/Semester 4/DevHack/DevHack/media/10.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -577,7 +616,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -629,7 +668,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -823,27 +862,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="3" max="3" width="28.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="54.125" customWidth="1"/>
+    <col min="7" max="7" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>147</v>
       </c>
@@ -862,9 +904,11 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -883,8 +927,11 @@
       <c r="F2" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -903,8 +950,11 @@
       <c r="F3" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -923,8 +973,11 @@
       <c r="F4" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -943,8 +996,11 @@
       <c r="F5" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -963,8 +1019,11 @@
       <c r="F6" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -983,8 +1042,11 @@
       <c r="F7" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1003,8 +1065,11 @@
       <c r="F8" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1023,8 +1088,11 @@
       <c r="F9" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1043,8 +1111,11 @@
       <c r="F10" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1063,8 +1134,11 @@
       <c r="F11" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1083,8 +1157,11 @@
       <c r="F12" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1103,8 +1180,11 @@
       <c r="F13" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1123,8 +1203,11 @@
       <c r="F14" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1143,8 +1226,11 @@
       <c r="F15" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1163,8 +1249,11 @@
       <c r="F16" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1183,8 +1272,11 @@
       <c r="F17" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1203,8 +1295,11 @@
       <c r="F18" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1223,8 +1318,11 @@
       <c r="F19" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1240,8 +1338,11 @@
       <c r="E20" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1257,8 +1358,11 @@
       <c r="E21" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1277,8 +1381,11 @@
       <c r="F22" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1297,8 +1404,11 @@
       <c r="F23" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1317,8 +1427,11 @@
       <c r="F24" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1337,8 +1450,11 @@
       <c r="F25" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1354,8 +1470,11 @@
       <c r="E26" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1374,8 +1493,11 @@
       <c r="F27" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1391,8 +1513,11 @@
       <c r="E28" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1411,8 +1536,11 @@
       <c r="F29" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1431,8 +1559,11 @@
       <c r="F30" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1451,8 +1582,11 @@
       <c r="F31" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1471,8 +1605,11 @@
       <c r="F32" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1488,8 +1625,11 @@
       <c r="E33" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1508,8 +1648,11 @@
       <c r="F34" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1528,8 +1671,11 @@
       <c r="F35" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1545,8 +1691,11 @@
       <c r="E36" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1565,8 +1714,11 @@
       <c r="F37" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1585,8 +1737,11 @@
       <c r="F38" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1605,8 +1760,11 @@
       <c r="F39" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1625,8 +1783,11 @@
       <c r="F40" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1645,8 +1806,11 @@
       <c r="F41" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1665,8 +1829,11 @@
       <c r="F42" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1685,8 +1852,11 @@
       <c r="F43" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
@@ -1701,7 +1871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
@@ -1716,7 +1886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
@@ -1731,7 +1901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
@@ -1746,7 +1916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
@@ -1761,7 +1931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>6</v>
       </c>
@@ -1776,7 +1946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>6</v>
       </c>
@@ -1791,7 +1961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>6</v>
       </c>
@@ -1806,7 +1976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
@@ -1821,7 +1991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +2006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>6</v>
       </c>
@@ -1851,7 +2021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>6</v>
       </c>
@@ -1866,7 +2036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>6</v>
       </c>
@@ -1881,7 +2051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>6</v>
       </c>
@@ -1896,7 +2066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>6</v>
       </c>
@@ -1911,7 +2081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>6</v>
       </c>
@@ -1926,7 +2096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>6</v>
       </c>
@@ -1941,7 +2111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>6</v>
       </c>
@@ -1956,7 +2126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
@@ -1971,7 +2141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
@@ -1986,7 +2156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>6</v>
       </c>
@@ -2001,7 +2171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>6</v>
       </c>
@@ -2016,7 +2186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>6</v>
       </c>
@@ -2031,7 +2201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>6</v>
       </c>
@@ -2046,7 +2216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
@@ -2061,7 +2231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>6</v>
       </c>
@@ -2076,7 +2246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>6</v>
       </c>
@@ -2106,7 +2276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>6</v>
       </c>
@@ -2121,7 +2291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>6</v>
       </c>
@@ -2136,7 +2306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>6</v>
       </c>
@@ -2151,7 +2321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>6</v>
       </c>
@@ -2166,7 +2336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
@@ -2181,7 +2351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +2366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
@@ -2211,7 +2381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>6</v>
       </c>
@@ -2226,7 +2396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>6</v>
       </c>
@@ -2241,7 +2411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>6</v>
       </c>
@@ -2256,7 +2426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>6</v>
       </c>
@@ -2271,7 +2441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>6</v>
       </c>
@@ -2286,7 +2456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>6</v>
       </c>
@@ -2301,7 +2471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>6</v>
       </c>
@@ -2315,7 +2485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>6</v>
       </c>
@@ -2329,7 +2499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>6</v>
       </c>
@@ -2343,7 +2513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>6</v>
       </c>
@@ -2357,7 +2527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>6</v>
       </c>
@@ -2371,7 +2541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>6</v>
       </c>
@@ -2385,7 +2555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>6</v>
       </c>
@@ -2399,7 +2569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>6</v>
       </c>
@@ -2413,7 +2583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>6</v>
       </c>
@@ -2427,7 +2597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>6</v>
       </c>
@@ -2441,7 +2611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>6</v>
       </c>
@@ -2455,7 +2625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>6</v>
       </c>
@@ -2469,7 +2639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>6</v>
       </c>
@@ -2483,7 +2653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>6</v>
       </c>
@@ -2497,7 +2667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>6</v>
       </c>
@@ -2511,7 +2681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
@@ -2525,7 +2695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>6</v>
       </c>
@@ -2539,7 +2709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
@@ -2553,7 +2723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>6</v>
       </c>
@@ -2567,7 +2737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
@@ -2581,7 +2751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>6</v>
       </c>
@@ -2595,7 +2765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>6</v>
       </c>
@@ -2609,7 +2779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>6</v>
       </c>
@@ -2623,7 +2793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>6</v>
       </c>
@@ -2637,7 +2807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>6</v>
       </c>
@@ -2651,7 +2821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>6</v>
       </c>
@@ -2665,7 +2835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>6</v>
       </c>
@@ -2679,7 +2849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>6</v>
       </c>
@@ -2693,7 +2863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>6</v>
       </c>
@@ -2707,7 +2877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>6</v>
       </c>
@@ -2721,7 +2891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>6</v>
       </c>
@@ -2735,7 +2905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>6</v>
       </c>
@@ -2749,7 +2919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>6</v>
       </c>
@@ -2763,7 +2933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>6</v>
       </c>
@@ -2777,7 +2947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>6</v>
       </c>
@@ -2791,7 +2961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>6</v>
       </c>
@@ -2805,7 +2975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>6</v>
       </c>
@@ -2819,7 +2989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>6</v>
       </c>
@@ -2833,7 +3003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>6</v>
       </c>
@@ -2847,7 +3017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>6</v>
       </c>
@@ -2861,7 +3031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>6</v>
       </c>
@@ -2875,7 +3045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>6</v>
       </c>
@@ -2889,7 +3059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
@@ -2903,7 +3073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>6</v>
       </c>
@@ -2917,7 +3087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>6</v>
       </c>
@@ -2931,7 +3101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>6</v>
       </c>
@@ -2945,7 +3115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>6</v>
       </c>
@@ -2959,7 +3129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>6</v>
       </c>
@@ -2973,7 +3143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>6</v>
       </c>
@@ -2987,7 +3157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>6</v>
       </c>
@@ -3001,7 +3171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>6</v>
       </c>
@@ -3015,7 +3185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>6</v>
       </c>
@@ -3029,7 +3199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>6</v>
       </c>
@@ -3043,7 +3213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>6</v>
       </c>
@@ -3057,7 +3227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>6</v>
       </c>
@@ -3071,7 +3241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>6</v>
       </c>
@@ -3085,7 +3255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>6</v>
       </c>
@@ -3099,7 +3269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>6</v>
       </c>
@@ -3113,7 +3283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>6</v>
       </c>
@@ -3127,7 +3297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>6</v>
       </c>
@@ -3141,7 +3311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>6</v>
       </c>
@@ -3155,7 +3325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>6</v>
       </c>
@@ -3169,7 +3339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>6</v>
       </c>
@@ -3183,7 +3353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>6</v>
       </c>
@@ -3197,7 +3367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>6</v>
       </c>
@@ -3211,7 +3381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>6</v>
       </c>
@@ -3225,7 +3395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>6</v>
       </c>
@@ -3239,7 +3409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>6</v>
       </c>
@@ -3253,7 +3423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>6</v>
       </c>
@@ -3267,7 +3437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>6</v>
       </c>
@@ -3281,7 +3451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>6</v>
       </c>
@@ -3295,7 +3465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>6</v>
       </c>
@@ -3309,7 +3479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>6</v>
       </c>
@@ -3323,7 +3493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>6</v>
       </c>
@@ -3337,7 +3507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>6</v>
       </c>
@@ -3351,7 +3521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>6</v>
       </c>
@@ -3365,7 +3535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>6</v>
       </c>
@@ -3379,7 +3549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>6</v>
       </c>
@@ -3393,7 +3563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>6</v>
       </c>
@@ -3407,7 +3577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>6</v>
       </c>
@@ -3421,7 +3591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>6</v>
       </c>
@@ -3435,7 +3605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>6</v>
       </c>
@@ -3449,7 +3619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>6</v>
       </c>
@@ -3463,7 +3633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>6</v>
       </c>
@@ -3477,7 +3647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>6</v>
       </c>
@@ -3491,7 +3661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>6</v>
       </c>
@@ -3505,7 +3675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>6</v>
       </c>
@@ -3519,7 +3689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>6</v>
       </c>
@@ -3533,7 +3703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>6</v>
       </c>
@@ -3547,7 +3717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>6</v>
       </c>
@@ -3561,7 +3731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>6</v>
       </c>
@@ -3575,7 +3745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>6</v>
       </c>
@@ -3589,7 +3759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>6</v>
       </c>
@@ -3603,7 +3773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>6</v>
       </c>
@@ -3617,7 +3787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>6</v>
       </c>
@@ -3631,7 +3801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>6</v>
       </c>
@@ -3645,7 +3815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>6</v>
       </c>
@@ -3659,7 +3829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>6</v>
       </c>
@@ -3673,7 +3843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>6</v>
       </c>
@@ -3687,7 +3857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>6</v>
       </c>
@@ -3701,7 +3871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>6</v>
       </c>
@@ -3715,7 +3885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>6</v>
       </c>
@@ -3729,7 +3899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>6</v>
       </c>
@@ -3743,7 +3913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>6</v>
       </c>
@@ -3757,7 +3927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>6</v>
       </c>
@@ -3771,7 +3941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
         <v>6</v>
       </c>
@@ -3785,7 +3955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>6</v>
       </c>
@@ -3799,7 +3969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>6</v>
       </c>
@@ -3813,7 +3983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>6</v>
       </c>
@@ -3827,7 +3997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>6</v>
       </c>
@@ -3841,7 +4011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>6</v>
       </c>
@@ -3855,7 +4025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>6</v>
       </c>
@@ -3869,7 +4039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>6</v>
       </c>
@@ -3883,7 +4053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
         <v>6</v>
       </c>
@@ -3897,7 +4067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
         <v>6</v>
       </c>
@@ -3911,7 +4081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>6</v>
       </c>
@@ -3927,7 +4097,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F34" r:id="rId1"/>
+    <hyperlink ref="F34" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
